--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Z)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Z).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Z)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(Z).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,93 +525,244 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zan
-Zannichellia - fam. Zannichelliacées
+          <t>Zan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Zannichellia - fam. Zannichelliacées
 Zannichellia palustris - Zannichellie des marais
 Zantedeschia
 Zantedeschia aethiopica voir Richardia africana - Bouillon blanc
 Zantedeschia nana
 Zantedeschia rehmannii voir Richardia rehmanni
-Zanthoxylum piperitum - fam. Rutacées - nom français Clavalier
-Zap
-Zapoteca
-Zau
-Zauschneria
+Zanthoxylum piperitum - fam. Rutacées - nom français Clavalier</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Za</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Zap</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zapoteca</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Za</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Zau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zauschneria
 Zauschneria californica
 Zauschneria cana
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ze</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zea
-Zea - fam. Poacées
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Zea</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zea - fam. Poacées
 Zea mays - Maïs
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Zi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zig
-Zigadenus
-Zigadenus elegans
-Zin
-Zingiberis - fam. Zingibéracées
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Zig</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Zigadenus
+Zigadenus elegans</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Zi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Zin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Zingiberis - fam. Zingibéracées
 Zingiberis officinalis - Gingembre
 Zinnia
-Zinnia angustifolia - Zinnia
-Ziz
-Zizania - fam. Poacées
+Zinnia angustifolia - Zinnia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Zi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ziz</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zizania - fam. Poacées
 Zizania aquatica - Zizanie aquatique ou « Riz sauvage »
 Zizania caduciflora
 Zizania latifolia - Zizanie à large feuille
@@ -628,41 +791,149 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Zo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zol
-Zollernia
-Zor
-Zornia
-Zoy
-Zoysia
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Zol</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Zollernia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Zo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Zor</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Zornia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Zo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Zoy</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zoysia
 Zoysia tenuifolia
-Zyg
-Zygia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(Z)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Zo</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Zyg</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zygia
 Voir aussi Plantes par nom scientifique | Flore.
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
